--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Macroalbuminuria (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Macroalbuminuria (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66.71901911869216</v>
+        <v>66.6808955223879</v>
       </c>
       <c r="B2" t="n">
-        <v>54.00210613785018</v>
+        <v>54.09333333333332</v>
       </c>
       <c r="C2" t="n">
-        <v>78.00646019166018</v>
+        <v>78.34666666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.36759303482587</v>
+        <v>1.534726368159203</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3544087644662162</v>
+        <v>0.3600000000000002</v>
       </c>
       <c r="C3" t="n">
-        <v>3.321333333333326</v>
+        <v>3.320000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.196502487562181</v>
+        <v>6.253432835820892</v>
       </c>
       <c r="B4" t="n">
-        <v>3.106814879537728</v>
+        <v>2.58</v>
       </c>
       <c r="C4" t="n">
-        <v>11.15260000000001</v>
+        <v>11.16666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.785457758824923</v>
+        <v>1.784975124378108</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3812503849315209</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="C5" t="n">
-        <v>3.938166137566137</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.898895522388</v>
+        <v>25.889983416252</v>
       </c>
       <c r="B6" t="n">
-        <v>13.65963515886132</v>
+        <v>13.86666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>39.07970582010581</v>
+        <v>38.65333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63.43594593698169</v>
+        <v>63.14819237147591</v>
       </c>
       <c r="B7" t="n">
-        <v>48.71480817842289</v>
+        <v>49.16666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>76.89269004329003</v>
+        <v>76.11999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88.94745843402025</v>
+        <v>89.04019900497501</v>
       </c>
       <c r="B8" t="n">
-        <v>79.62130430945354</v>
+        <v>79.47333333333336</v>
       </c>
       <c r="C8" t="n">
-        <v>94.29165791245791</v>
+        <v>94.36000000000004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23.51843449419555</v>
+        <v>23.58540630182408</v>
       </c>
       <c r="B9" t="n">
-        <v>13.19619569462186</v>
+        <v>13.36000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>36.32368359788368</v>
+        <v>36.23999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88.83211108670199</v>
+        <v>88.90338308457697</v>
       </c>
       <c r="B10" t="n">
-        <v>79.62626407177154</v>
+        <v>79.76000000000002</v>
       </c>
       <c r="C10" t="n">
-        <v>94.49548753541609</v>
+        <v>94.33999999999997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77.49501096896462</v>
+        <v>77.34553897180754</v>
       </c>
       <c r="B11" t="n">
-        <v>66.09011456921702</v>
+        <v>66.37333333333335</v>
       </c>
       <c r="C11" t="n">
-        <v>86.09289028690198</v>
+        <v>85.91333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>51.60174129353221</v>
+        <v>51.07946932006621</v>
       </c>
       <c r="B12" t="n">
-        <v>36.53614021164015</v>
+        <v>37.12666666666668</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21487037037038</v>
+        <v>63.85333333333331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>87.04088929211228</v>
+        <v>86.99787728026517</v>
       </c>
       <c r="B13" t="n">
-        <v>77.81721287782236</v>
+        <v>78.09333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>92.92862724155266</v>
+        <v>92.93333333333335</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>83.50902905132448</v>
+        <v>83.37290215588713</v>
       </c>
       <c r="B14" t="n">
-        <v>73.55179567610149</v>
+        <v>73.16000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>90.18086844073841</v>
+        <v>89.99333333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.207551158349659</v>
+        <v>2.17429519071309</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.7400000000000003</v>
       </c>
       <c r="C15" t="n">
-        <v>4.23705238095238</v>
+        <v>4.200000000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25.89853864013261</v>
+        <v>25.95688225538966</v>
       </c>
       <c r="B16" t="n">
-        <v>13.65963515886132</v>
+        <v>13.98666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>38.5164222222222</v>
+        <v>38.63999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>51.70476616915409</v>
+        <v>51.13737976782739</v>
       </c>
       <c r="B17" t="n">
-        <v>36.54758306878306</v>
+        <v>36.63333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>65.70723015873008</v>
+        <v>65.80666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.196502487562181</v>
+        <v>6.253432835820892</v>
       </c>
       <c r="B18" t="n">
-        <v>3.106814879537728</v>
+        <v>2.58</v>
       </c>
       <c r="C18" t="n">
-        <v>11.13793333333335</v>
+        <v>11.16666666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>78.12102104556577</v>
+        <v>77.95038142620226</v>
       </c>
       <c r="B19" t="n">
-        <v>67.5118168995206</v>
+        <v>67.46666666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>86.07284082914558</v>
+        <v>85.80000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>28.87051409618569</v>
+        <v>28.82106135986731</v>
       </c>
       <c r="B20" t="n">
-        <v>16.42190312051783</v>
+        <v>16.95999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>42.77025079365081</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.381087420042634</v>
+        <v>9.369386401326686</v>
       </c>
       <c r="B21" t="n">
-        <v>4.623666750295911</v>
+        <v>4.526666666666666</v>
       </c>
       <c r="C21" t="n">
-        <v>15.88778398268398</v>
+        <v>15.94666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89.14962397296931</v>
+        <v>89.39525704809283</v>
       </c>
       <c r="B22" t="n">
-        <v>79.68004959573916</v>
+        <v>80.20000000000002</v>
       </c>
       <c r="C22" t="n">
-        <v>94.66392153140546</v>
+        <v>94.55333333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.430017855168594</v>
+        <v>2.454494195688217</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6919122162216321</v>
+        <v>0.7466666666666669</v>
       </c>
       <c r="C23" t="n">
-        <v>4.848289947089945</v>
+        <v>4.866666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.88252868988386</v>
+        <v>25.88673300165833</v>
       </c>
       <c r="B24" t="n">
-        <v>13.69702635655252</v>
+        <v>13.86666666666666</v>
       </c>
       <c r="C24" t="n">
-        <v>38.57231111111107</v>
+        <v>38.65999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21.57798032061899</v>
+        <v>21.62202321724696</v>
       </c>
       <c r="B25" t="n">
-        <v>11.96664803857419</v>
+        <v>11.62666666666667</v>
       </c>
       <c r="C25" t="n">
-        <v>34.33779999999997</v>
+        <v>34.26666666666668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.417976308931525</v>
+        <v>9.360232172470973</v>
       </c>
       <c r="B26" t="n">
-        <v>4.588497438126598</v>
+        <v>4.133333333333335</v>
       </c>
       <c r="C26" t="n">
-        <v>16.18740634920634</v>
+        <v>16.28666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>87.28699868862468</v>
+        <v>87.20245439469308</v>
       </c>
       <c r="B27" t="n">
-        <v>77.80691372987793</v>
+        <v>77.89999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>93.17823207581873</v>
+        <v>92.99333333333331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>64.94254363894802</v>
+        <v>64.88325041459365</v>
       </c>
       <c r="B28" t="n">
-        <v>52.10456678871525</v>
+        <v>50.39999999999998</v>
       </c>
       <c r="C28" t="n">
-        <v>76.69172424242419</v>
+        <v>75.97333333333337</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.663266666666654</v>
+        <v>2.656981757877268</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.9133333333333336</v>
       </c>
       <c r="C29" t="n">
-        <v>5.021352380952383</v>
+        <v>4.993333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>49.62772703150898</v>
+        <v>49.74411276948576</v>
       </c>
       <c r="B30" t="n">
-        <v>36.16924232804232</v>
+        <v>36.12666666666667</v>
       </c>
       <c r="C30" t="n">
-        <v>64.30427297517301</v>
+        <v>64.74666666666664</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>83.15967208402424</v>
+        <v>83.27635157545595</v>
       </c>
       <c r="B31" t="n">
-        <v>73.75979138450074</v>
+        <v>74.65333333333338</v>
       </c>
       <c r="C31" t="n">
-        <v>90.57272114120271</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>86.44814190651795</v>
+        <v>86.53741293532333</v>
       </c>
       <c r="B32" t="n">
-        <v>77.39867750283138</v>
+        <v>77.39333333333336</v>
       </c>
       <c r="C32" t="n">
-        <v>92.70236840803049</v>
+        <v>92.67333333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>83.55364454528325</v>
+        <v>83.82484245439458</v>
       </c>
       <c r="B33" t="n">
-        <v>74.21632509325705</v>
+        <v>75.10666666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>90.18008603686775</v>
+        <v>90.40666666666671</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68.88830547263677</v>
+        <v>68.52769485903805</v>
       </c>
       <c r="B34" t="n">
-        <v>55.71953518388158</v>
+        <v>56.39333333333332</v>
       </c>
       <c r="C34" t="n">
-        <v>79.31660952380948</v>
+        <v>79.15333333333332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>26.79014593698169</v>
+        <v>26.83074626865665</v>
       </c>
       <c r="B35" t="n">
-        <v>16.07907460088932</v>
+        <v>15.63333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>39.19179999999995</v>
+        <v>39.40666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>63.3761482587064</v>
+        <v>63.17840796019896</v>
       </c>
       <c r="B36" t="n">
-        <v>48.53857960699431</v>
+        <v>48.07333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>76.77805589225586</v>
+        <v>76.26000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10.47387827529021</v>
+        <v>10.51174129353234</v>
       </c>
       <c r="B37" t="n">
-        <v>4.697668534545373</v>
+        <v>4.853333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>17.33023174603172</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>83.85849718076277</v>
+        <v>83.69744610281919</v>
       </c>
       <c r="B38" t="n">
-        <v>73.47356313641896</v>
+        <v>73.75999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>90.29303968703023</v>
+        <v>90.28666666666665</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>52.76415920398007</v>
+        <v>52.35466003316746</v>
       </c>
       <c r="B39" t="n">
-        <v>36.65885132275125</v>
+        <v>37.44666666666669</v>
       </c>
       <c r="C39" t="n">
-        <v>65.05594444444446</v>
+        <v>65.32666666666665</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7.836995024875622</v>
+        <v>7.852404643449415</v>
       </c>
       <c r="B40" t="n">
-        <v>3.248169725140469</v>
+        <v>3.380000000000002</v>
       </c>
       <c r="C40" t="n">
-        <v>14.03591746031747</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>61.03954228855712</v>
+        <v>61.19840796019894</v>
       </c>
       <c r="B41" t="n">
-        <v>47.50566907166908</v>
+        <v>47.38</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20139999999994</v>
+        <v>74.38000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>77.732455042249</v>
+        <v>77.93956882255384</v>
       </c>
       <c r="B42" t="n">
-        <v>67.24261783007154</v>
+        <v>67.16000000000003</v>
       </c>
       <c r="C42" t="n">
-        <v>86.24486058882233</v>
+        <v>86.42000000000002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>49.61085140961843</v>
+        <v>49.74411276948576</v>
       </c>
       <c r="B43" t="n">
-        <v>36.0077238095238</v>
+        <v>36.12666666666667</v>
       </c>
       <c r="C43" t="n">
-        <v>64.52946666666672</v>
+        <v>64.74666666666664</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>74.07477114427849</v>
+        <v>74.11674958540617</v>
       </c>
       <c r="B44" t="n">
-        <v>63.2490507160252</v>
+        <v>62.93333333333333</v>
       </c>
       <c r="C44" t="n">
-        <v>83.86859682539686</v>
+        <v>83.92000000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>78.43514759535645</v>
+        <v>78.37611940298497</v>
       </c>
       <c r="B45" t="n">
-        <v>67.6814344615882</v>
+        <v>68.22666666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>86.47359010669238</v>
+        <v>86.57333333333332</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>82.70979362710246</v>
+        <v>82.73326699834145</v>
       </c>
       <c r="B46" t="n">
-        <v>72.81621883427762</v>
+        <v>73.51333333333334</v>
       </c>
       <c r="C46" t="n">
-        <v>90.39924577677229</v>
+        <v>90.56000000000003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>89.21493251885509</v>
+        <v>89.01227197346593</v>
       </c>
       <c r="B47" t="n">
-        <v>79.68333250847859</v>
+        <v>79.34</v>
       </c>
       <c r="C47" t="n">
-        <v>94.73924051208078</v>
+        <v>94.72666666666665</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>51.6825373134327</v>
+        <v>51.51800995024865</v>
       </c>
       <c r="B48" t="n">
-        <v>36.8236529100529</v>
+        <v>36.82</v>
       </c>
       <c r="C48" t="n">
-        <v>65.31064179894177</v>
+        <v>64.99333333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.065971484568497</v>
+        <v>7.153067993366496</v>
       </c>
       <c r="B49" t="n">
-        <v>3.106814879537728</v>
+        <v>3.026666666666667</v>
       </c>
       <c r="C49" t="n">
-        <v>12.41520634920635</v>
+        <v>12.37333333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.43995787728026</v>
+        <v>10.48941956882255</v>
       </c>
       <c r="B50" t="n">
-        <v>4.71033520121204</v>
+        <v>4.926666666666666</v>
       </c>
       <c r="C50" t="n">
-        <v>17.36191428571427</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.342036815920398</v>
+        <v>1.354958540630182</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3544087644662162</v>
+        <v>0.2400000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>2.892720875420878</v>
+        <v>2.873333333333332</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>81.71919933665005</v>
+        <v>81.7224212271973</v>
       </c>
       <c r="B52" t="n">
-        <v>72.48261412101701</v>
+        <v>72.56</v>
       </c>
       <c r="C52" t="n">
-        <v>88.7217587301586</v>
+        <v>88.69333333333336</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52.61468656716414</v>
+        <v>52.24165837479263</v>
       </c>
       <c r="B53" t="n">
-        <v>36.86078624338622</v>
+        <v>36.86</v>
       </c>
       <c r="C53" t="n">
-        <v>66.04635714285708</v>
+        <v>66.12666666666668</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.198749831649825</v>
+        <v>2.17641791044775</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.7333333333333337</v>
       </c>
       <c r="C54" t="n">
-        <v>4.221802645502644</v>
+        <v>4.206666666666669</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.361863539445618</v>
+        <v>9.363349917081253</v>
       </c>
       <c r="B55" t="n">
-        <v>4.611000083629244</v>
+        <v>4.406666666666667</v>
       </c>
       <c r="C55" t="n">
-        <v>15.8510062049062</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>83.00827940456442</v>
+        <v>83.56461028192361</v>
       </c>
       <c r="B56" t="n">
-        <v>74.17323096611371</v>
+        <v>74.61333333333333</v>
       </c>
       <c r="C56" t="n">
-        <v>90.16362053979172</v>
+        <v>90.34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>86.41603659971861</v>
+        <v>86.48019900497505</v>
       </c>
       <c r="B57" t="n">
-        <v>77.39816443093595</v>
+        <v>77.28</v>
       </c>
       <c r="C57" t="n">
-        <v>92.70797575341415</v>
+        <v>92.66666666666664</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.50707728026534</v>
+        <v>10.59160862354891</v>
       </c>
       <c r="B58" t="n">
-        <v>4.675165889042728</v>
+        <v>4.693333333333334</v>
       </c>
       <c r="C58" t="n">
-        <v>17.67391428571429</v>
+        <v>17.93333333333334</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>76.46578839137625</v>
+        <v>76.50892205638459</v>
       </c>
       <c r="B59" t="n">
-        <v>64.64484275293566</v>
+        <v>64.30666666666667</v>
       </c>
       <c r="C59" t="n">
-        <v>85.7236174508745</v>
+        <v>85.74666666666664</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.445230790491975</v>
+        <v>2.494759535655047</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.786666666666667</v>
       </c>
       <c r="C60" t="n">
-        <v>5.012777777777771</v>
+        <v>4.973333333333334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>83.60664196295676</v>
+        <v>83.84776119402974</v>
       </c>
       <c r="B61" t="n">
-        <v>74.12710128373325</v>
+        <v>74.87333333333332</v>
       </c>
       <c r="C61" t="n">
-        <v>90.24781598926829</v>
+        <v>90.4666666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>77.50220499881537</v>
+        <v>77.29389718076278</v>
       </c>
       <c r="B62" t="n">
-        <v>65.99813388138634</v>
+        <v>66.14000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>86.22048721959895</v>
+        <v>86.23999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>84.04345676379998</v>
+        <v>84.02560530679926</v>
       </c>
       <c r="B63" t="n">
-        <v>74.18915574903404</v>
+        <v>74.12000000000003</v>
       </c>
       <c r="C63" t="n">
-        <v>90.84275923775792</v>
+        <v>90.86666666666665</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.46453427307904</v>
+        <v>2.501791044776108</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6971066606660765</v>
+        <v>0.8066666666666669</v>
       </c>
       <c r="C64" t="n">
-        <v>4.866444444444442</v>
+        <v>4.913333333333335</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>86.16375556345251</v>
+        <v>86.03618573797667</v>
       </c>
       <c r="B65" t="n">
-        <v>77.08734665733517</v>
+        <v>76.84666666666666</v>
       </c>
       <c r="C65" t="n">
-        <v>92.19079959646594</v>
+        <v>92.28666666666668</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68.15277085998565</v>
+        <v>68.27260364842444</v>
       </c>
       <c r="B66" t="n">
-        <v>55.687777608124</v>
+        <v>56.42</v>
       </c>
       <c r="C66" t="n">
-        <v>78.82601531279184</v>
+        <v>79.06666666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>67.47128727789614</v>
+        <v>67.515655058043</v>
       </c>
       <c r="B67" t="n">
-        <v>54.94819835099766</v>
+        <v>55.21333333333336</v>
       </c>
       <c r="C67" t="n">
-        <v>78.5970737077737</v>
+        <v>78.63333333333335</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8.940256432125079</v>
+        <v>8.995489220563837</v>
       </c>
       <c r="B68" t="n">
-        <v>3.43632156405949</v>
+        <v>3.966666666666666</v>
       </c>
       <c r="C68" t="n">
-        <v>15.37359191919191</v>
+        <v>15.31333333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>89.24961257209821</v>
+        <v>89.33330016583741</v>
       </c>
       <c r="B69" t="n">
-        <v>79.71745793987962</v>
+        <v>80.06666666666666</v>
       </c>
       <c r="C69" t="n">
-        <v>94.67591042029434</v>
+        <v>94.61333333333336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.735089220563842</v>
+        <v>7.641326699834153</v>
       </c>
       <c r="B70" t="n">
-        <v>3.248169725140469</v>
+        <v>3.5</v>
       </c>
       <c r="C70" t="n">
-        <v>13.85297777777779</v>
+        <v>13.69333333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>40.72319568822542</v>
+        <v>40.56932006633486</v>
       </c>
       <c r="B71" t="n">
-        <v>27.01145661375661</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="C71" t="n">
-        <v>55.67193333333321</v>
+        <v>55.50666666666668</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>46.35014029850729</v>
+        <v>46.42683250414577</v>
       </c>
       <c r="B72" t="n">
-        <v>32.62037407407408</v>
+        <v>32.74666666666666</v>
       </c>
       <c r="C72" t="n">
-        <v>61.59141843711847</v>
+        <v>61.66666666666665</v>
       </c>
     </row>
   </sheetData>
